--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224429.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220529.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 09:44:14</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 11:05:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220529.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224529.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 11:05:21</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 11:45:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224529.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225829.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 11:45:11</t>
+    <t>Informação extraída do SIGBM: 29/12/2022 - 11:58:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225829.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 29/12/2022 - 11:58:01</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 12:15:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 12:15:18</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 12:30:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 12:30:38</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 12:39:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 12:39:51</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 12:48:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 12:48:40</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 12:57:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 12:57:46</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 01:16:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 01:16:07</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 01:33:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 01:33:38</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 01:44:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 01:44:59</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 01:53:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 01:53:39</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 02:02:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 02:02:21</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 02:20:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 02:20:25</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 02:30:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 02:30:11</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 02:39:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 02:39:36</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 02:48:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 02:48:24</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 02:57:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 02:57:13</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 03:35:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 03:35:08</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 03:45:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 03:45:56</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 03:54:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 03:54:28</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 04:03:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 04:03:12</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 04:20:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 04:20:29</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 04:29:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 04:29:08</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 04:38:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 04:38:26</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 04:46:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 04:46:36</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 04:55:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 04:55:51</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 05:12:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 05:12:10</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 05:32:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 05:32:00</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 05:41:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 05:41:57</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 05:51:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 05:51:08</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 06:00:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 06:00:37</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 06:16:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 06:16:33</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 06:28:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 06:28:17</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 06:38:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 06:38:21</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 06:46:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 06:46:03</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 06:55:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 06:55:23</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 07:08:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 07:08:46</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 07:28:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 07:28:20</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 07:37:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 07:37:59</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 07:47:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 07:47:20</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 07:55:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 07:55:54</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 08:09:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 08:09:06</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 08:21:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 08:21:49</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 08:30:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 08:30:47</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 08:40:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 08:40:00</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 08:48:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 08:48:19</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 08:57:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 08:57:13</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 09:19:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 09:19:00</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 09:48:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 09:48:58</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 10:06:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 10:06:13</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 10:28:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 10:28:32</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 10:37:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 10:37:17</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 10:46:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 10:46:10</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 10:55:18</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -45649,7 +45649,7 @@
         <v>32</v>
       </c>
       <c r="R562" s="0" t="s">
-        <v>146</v>
+        <v>612</v>
       </c>
       <c r="S562" s="0" t="s">
         <v>48</v>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 10:55:18</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 11:07:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 11:07:20</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 11:23:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 11:23:29</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 11:31:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 11:31:49</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 11:41:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 11:41:20</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 11:49:53</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -1325,7 +1325,7 @@
     <t>-48°45'25.300"</t>
   </si>
   <si>
-    <t>493.885,00</t>
+    <t>501.099,00</t>
   </si>
   <si>
     <t>Bacia 5 A</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 11:49:53</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 11:58:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 11:58:21</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 12:15:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 12:15:13</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 12:29:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 12:29:05</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 12:38:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 12:38:14</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 12:47:07</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -1373,7 +1373,7 @@
     <t>-48°44'49.400"</t>
   </si>
   <si>
-    <t>523.636,00</t>
+    <t>519.160,00</t>
   </si>
   <si>
     <t>Bacia 6B</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 12:47:07</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 12:56:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 12:56:16</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 01:11:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 01:11:33</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 01:36:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 01:36:08</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 01:49:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 01:49:06</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 01:57:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 01:57:46</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 02:12:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 02:12:44</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 02:26:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 02:26:53</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 02:35:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 02:35:54</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 02:45:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 02:45:01</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 02:53:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 02:53:55</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 03:02:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 03:02:33</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 03:27:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 03:27:19</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 03:38:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 03:38:49</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 03:46:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 03:46:39</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 03:55:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 03:55:45</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 04:07:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 04:07:25</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 04:20:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 04:20:06</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 04:28:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 04:28:42</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 04:38:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 04:38:02</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 04:47:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 04:47:05</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 04:55:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 04:55:50</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 05:09:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 05:09:05</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 05:25:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 05:25:56</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 05:34:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 05:34:43</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 05:43:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 05:43:31</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 05:52:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 05:52:31</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 06:01:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 06:01:16</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 06:18:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 06:18:02</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 06:26:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 06:26:55</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 06:36:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 06:36:09</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 06:45:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 06:45:03</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 06:54:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 06:54:40</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 07:03:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 07:03:05</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 07:21:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 07:21:31</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 07:31:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 07:31:58</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 07:41:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 07:41:34</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 07:49:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 07:49:50</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 07:58:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 07:58:49</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 08:14:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 08:14:17</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 08:27:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 08:27:40</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 08:37:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 08:37:23</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 08:46:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-30.xlsx
+++ b/sigbm_download_2022-12-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 30/12/2022 - 08:46:22</t>
+    <t>Informação extraída do SIGBM: 30/12/2022 - 08:54:56</t>
   </si>
   <si>
     <t>ID Barragem</t>
